--- a/data/midstream.xlsx
+++ b/data/midstream.xlsx
@@ -1,19 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20390"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10611"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0729DB05-0994-4B3E-B0BA-6DFBD37939CD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A60997FC-18CE-8B42-9F03-B4D5665372F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1800" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9160" yWindow="2960" windowWidth="13180" windowHeight="10440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -21,10 +31,6 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
   <si>
     <t>x</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -37,12 +43,16 @@
     <t>cap</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -78,8 +88,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -360,44 +371,314 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>19.23</v>
       </c>
       <c r="C2">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="D2">
+        <v>35.869999999999997</v>
+      </c>
+      <c r="D2" s="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>20.75</v>
+      </c>
+      <c r="C3">
+        <v>25.78</v>
+      </c>
+      <c r="D3" s="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>30.12</v>
+      </c>
+      <c r="C4">
+        <v>5.1989999999999998</v>
+      </c>
+      <c r="D4" s="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>62.9</v>
+      </c>
+      <c r="C5">
+        <v>3.14</v>
+      </c>
+      <c r="D5" s="1">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>37.72</v>
+      </c>
+      <c r="C6">
+        <v>25.49</v>
+      </c>
+      <c r="D6" s="1">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>43.67</v>
+      </c>
+      <c r="C7">
+        <v>13.2</v>
+      </c>
+      <c r="D7" s="1">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>47.19</v>
+      </c>
+      <c r="C8">
+        <v>29.76</v>
+      </c>
+      <c r="D8" s="1">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>48.48</v>
+      </c>
+      <c r="C9">
+        <v>31.71</v>
+      </c>
+      <c r="D9" s="1">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>65.069999999999993</v>
+      </c>
+      <c r="C10">
+        <v>27.55</v>
+      </c>
+      <c r="D10" s="1">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11">
         <v>10</v>
       </c>
+      <c r="B11">
+        <v>66.72</v>
+      </c>
+      <c r="C11">
+        <v>28.28</v>
+      </c>
+      <c r="D11" s="1">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>91.68</v>
+      </c>
+      <c r="C12">
+        <v>27.75</v>
+      </c>
+      <c r="D12" s="1">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>92.86</v>
+      </c>
+      <c r="C13">
+        <v>29.06</v>
+      </c>
+      <c r="D13" s="1">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>65.099999999999994</v>
+      </c>
+      <c r="C14">
+        <v>38.520000000000003</v>
+      </c>
+      <c r="D14" s="1">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>45.69</v>
+      </c>
+      <c r="C15">
+        <v>43.82</v>
+      </c>
+      <c r="D15" s="1">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>45.09</v>
+      </c>
+      <c r="C16">
+        <v>49.09</v>
+      </c>
+      <c r="D16" s="1">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>58.75</v>
+      </c>
+      <c r="C17">
+        <v>48.69</v>
+      </c>
+      <c r="D17" s="1">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>51.53</v>
+      </c>
+      <c r="C18">
+        <v>58.5</v>
+      </c>
+      <c r="D18" s="1">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>64.11</v>
+      </c>
+      <c r="C19">
+        <v>69.709999999999994</v>
+      </c>
+      <c r="D19" s="1">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>74.11</v>
+      </c>
+      <c r="C20">
+        <v>64.61</v>
+      </c>
+      <c r="D20" s="1">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>83.98</v>
+      </c>
+      <c r="C21">
+        <v>48.62</v>
+      </c>
+      <c r="D21" s="1">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="D22" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>